--- a/teaching/traditional_assets/database/data/bulgaria/bulgaria_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/bulgaria/bulgaria_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1998</v>
+        <v>0.0747</v>
       </c>
       <c r="E2">
-        <v>-0.0108</v>
+        <v>0.182</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,16 +603,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001250934368288745</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.001224503840455378</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>104.47</v>
+        <v>74.14399999999999</v>
       </c>
       <c r="L2">
-        <v>0.4686855091969493</v>
+        <v>0.2335979836168872</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,67 +636,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>195.1</v>
+        <v>1107.5</v>
       </c>
       <c r="V2">
-        <v>0.6181875792141952</v>
+        <v>3.659947124917382</v>
       </c>
       <c r="W2">
-        <v>0.1236299433944407</v>
+        <v>0.02111781517942204</v>
       </c>
       <c r="X2">
-        <v>0.06032672646967412</v>
+        <v>0.05616533060496844</v>
       </c>
       <c r="Y2">
-        <v>0.06330321692476661</v>
+        <v>-0.03504751542554639</v>
       </c>
       <c r="Z2">
-        <v>0.3427860502316685</v>
+        <v>-8.82058692752333</v>
       </c>
       <c r="AA2">
-        <v>0.004445759226304241</v>
+        <v>-0</v>
       </c>
       <c r="AB2">
-        <v>0.053953096973362</v>
+        <v>0.04611804328932199</v>
       </c>
       <c r="AC2">
-        <v>-0.04950733774705776</v>
+        <v>-0.04611804328932199</v>
       </c>
       <c r="AD2">
-        <v>190.5</v>
+        <v>366.2</v>
       </c>
       <c r="AE2">
-        <v>0.9808336465421942</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>191.4808336465422</v>
+        <v>366.2</v>
       </c>
       <c r="AG2">
-        <v>-3.619166353457842</v>
+        <v>-741.3</v>
       </c>
       <c r="AH2">
-        <v>0.3776140231322819</v>
+        <v>0.5475478468899522</v>
       </c>
       <c r="AI2">
-        <v>0.2354714052812654</v>
+        <v>0.2490478781284004</v>
       </c>
       <c r="AJ2">
-        <v>-0.01160060479086407</v>
+        <v>1.689765215409164</v>
       </c>
       <c r="AK2">
-        <v>-0.005855490344370573</v>
+        <v>-2.042711490768806</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>401.0526315789474</v>
-      </c>
-      <c r="AP2">
-        <v>-7.619297586227037</v>
       </c>
     </row>
     <row r="3">
@@ -707,7 +701,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bulgarian-American Credit Bank AD (BUL:5BN)</t>
+          <t>Texim Bank AD (BUL:5CP)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -716,7 +710,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.327</v>
+        <v>0.09810000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.182</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -725,16 +722,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01119812332094623</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01081295546701196</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7.27</v>
+        <v>0.194</v>
       </c>
       <c r="L3">
-        <v>0.2919678714859438</v>
+        <v>0.02042105263157895</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -758,67 +755,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>88.7</v>
+        <v>49</v>
       </c>
       <c r="V3">
-        <v>0.9747252747252747</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="W3">
-        <v>0.06675849403122129</v>
+        <v>0.009194312796208531</v>
       </c>
       <c r="X3">
-        <v>0.05362210210942353</v>
+        <v>0.04609342934023551</v>
       </c>
       <c r="Y3">
-        <v>0.01313639192179776</v>
+        <v>-0.03689911654402698</v>
       </c>
       <c r="Z3">
-        <v>0.822302327955999</v>
+        <v>-21.44469525959377</v>
       </c>
       <c r="AA3">
-        <v>0.008891518452608481</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.05265582790068772</v>
+        <v>0.0428707905552534</v>
       </c>
       <c r="AC3">
-        <v>-0.04376430944807924</v>
+        <v>-0.0428707905552534</v>
       </c>
       <c r="AD3">
-        <v>20.3</v>
+        <v>13.3</v>
       </c>
       <c r="AE3">
-        <v>0.9808336465421942</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>21.2808336465422</v>
+        <v>13.3</v>
       </c>
       <c r="AG3">
-        <v>-67.41916635345781</v>
+        <v>-35.7</v>
       </c>
       <c r="AH3">
-        <v>0.189532202027764</v>
+        <v>0.2</v>
       </c>
       <c r="AI3">
-        <v>0.1624728828949852</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="AJ3">
-        <v>-2.859066280862548</v>
+        <v>-2.04</v>
       </c>
       <c r="AK3">
-        <v>-1.59455622178754</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>42.73684210526316</v>
-      </c>
-      <c r="AP3">
-        <v>-141.9350870599112</v>
       </c>
     </row>
     <row r="4">
@@ -829,114 +820,233 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Central Cooperative Bank AD (BUL:4CF)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.029</v>
+      </c>
+      <c r="E4">
+        <v>0.171</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>6.65</v>
+      </c>
+      <c r="L4">
+        <v>0.0689119170984456</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>-0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>-0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>957.3</v>
+      </c>
+      <c r="V4">
+        <v>12.28883183568678</v>
+      </c>
+      <c r="W4">
+        <v>0.02111781517942204</v>
+      </c>
+      <c r="X4">
+        <v>0.05616533060496844</v>
+      </c>
+      <c r="Y4">
+        <v>-0.03504751542554639</v>
+      </c>
+      <c r="Z4">
+        <v>-0.1583680703712213</v>
+      </c>
+      <c r="AA4">
+        <v>-0</v>
+      </c>
+      <c r="AB4">
+        <v>0.04611804328932199</v>
+      </c>
+      <c r="AC4">
+        <v>-0.04611804328932199</v>
+      </c>
+      <c r="AD4">
+        <v>48.5</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>48.5</v>
+      </c>
+      <c r="AG4">
+        <v>-908.8</v>
+      </c>
+      <c r="AH4">
+        <v>0.3837025316455696</v>
+      </c>
+      <c r="AI4">
+        <v>0.1214625594790884</v>
+      </c>
+      <c r="AJ4">
+        <v>1.093753760982068</v>
+      </c>
+      <c r="AK4">
+        <v>1.628673835125448</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>First Investment Bank AD (BUL:5F4)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.0726</v>
-      </c>
-      <c r="E4">
-        <v>-0.0108</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>97.2</v>
-      </c>
-      <c r="L4">
-        <v>0.4909090909090909</v>
-      </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>-0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>-0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>106.4</v>
-      </c>
-      <c r="V4">
-        <v>0.4737310774710597</v>
-      </c>
-      <c r="W4">
-        <v>0.1805013927576602</v>
-      </c>
-      <c r="X4">
-        <v>0.0670313508299247</v>
-      </c>
-      <c r="Y4">
-        <v>0.1134700419277355</v>
-      </c>
-      <c r="Z4">
-        <v>0.3193656559335074</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0.05525036604603628</v>
-      </c>
-      <c r="AC4">
-        <v>-0.05525036604603628</v>
-      </c>
-      <c r="AD4">
-        <v>170.2</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>170.2</v>
-      </c>
-      <c r="AG4">
-        <v>63.79999999999998</v>
-      </c>
-      <c r="AH4">
-        <v>0.4311043566362716</v>
-      </c>
-      <c r="AI4">
-        <v>0.2494869539724421</v>
-      </c>
-      <c r="AJ4">
-        <v>0.2212205270457697</v>
-      </c>
-      <c r="AK4">
-        <v>0.1108023619312261</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
+      <c r="D5">
+        <v>0.0747</v>
+      </c>
+      <c r="E5">
+        <v>0.416</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>67.3</v>
+      </c>
+      <c r="L5">
+        <v>0.3183538315988647</v>
+      </c>
+      <c r="M5">
+        <v>-0</v>
+      </c>
+      <c r="N5">
+        <v>-0</v>
+      </c>
+      <c r="O5">
+        <v>-0</v>
+      </c>
+      <c r="P5">
+        <v>-0</v>
+      </c>
+      <c r="Q5">
+        <v>-0</v>
+      </c>
+      <c r="R5">
+        <v>-0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>101.2</v>
+      </c>
+      <c r="V5">
+        <v>0.5900874635568514</v>
+      </c>
+      <c r="W5">
+        <v>0.13188320595728</v>
+      </c>
+      <c r="X5">
+        <v>0.08731511767192865</v>
+      </c>
+      <c r="Y5">
+        <v>0.04456808828535139</v>
+      </c>
+      <c r="Z5">
+        <v>0.3684216947049402</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0.0506419969345675</v>
+      </c>
+      <c r="AC5">
+        <v>-0.0506419969345675</v>
+      </c>
+      <c r="AD5">
+        <v>304.4</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>304.4</v>
+      </c>
+      <c r="AG5">
+        <v>203.2</v>
+      </c>
+      <c r="AH5">
+        <v>0.6396301744063879</v>
+      </c>
+      <c r="AI5">
+        <v>0.2941915531071809</v>
+      </c>
+      <c r="AJ5">
+        <v>0.5423005070723245</v>
+      </c>
+      <c r="AK5">
+        <v>0.2176754151044456</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
         <v>0</v>
       </c>
     </row>
